--- a/artfynd/A 35492-2020.xlsx
+++ b/artfynd/A 35492-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61646020</v>
+        <v>87868543</v>
       </c>
       <c r="B2" t="n">
-        <v>90641</v>
+        <v>90647</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,48 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hednäs, Vb</t>
+          <t>Tegslund, Vb</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>714639.8715831796</v>
+        <v>714541.1957100357</v>
       </c>
       <c r="R2" t="n">
-        <v>7127674.152014807</v>
+        <v>7127922.832095096</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,7 +753,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2016-09-29</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -770,7 +763,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2016-09-29</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -791,22 +784,26 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Ulf Hallin</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Ulf Hallin</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>87868543</v>
+        <v>87868474</v>
       </c>
       <c r="B3" t="n">
-        <v>90647</v>
+        <v>90639</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -819,21 +816,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -846,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>714541.1957100357</v>
+        <v>714528.1606125243</v>
       </c>
       <c r="R3" t="n">
-        <v>7127922.832095096</v>
+        <v>7127934.155467404</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -923,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87868474</v>
+        <v>87868461</v>
       </c>
       <c r="B4" t="n">
-        <v>90639</v>
+        <v>90665</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -935,25 +932,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -966,10 +963,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>714528.1606125243</v>
+        <v>714559.0773559922</v>
       </c>
       <c r="R4" t="n">
-        <v>7127934.155467404</v>
+        <v>7128042.891074254</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1043,10 +1040,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87868461</v>
+        <v>87868465</v>
       </c>
       <c r="B5" t="n">
-        <v>90665</v>
+        <v>90676</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1055,25 +1052,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4366</v>
+        <v>5966</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1086,10 +1083,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>714559.0773559922</v>
+        <v>714407.0040174956</v>
       </c>
       <c r="R5" t="n">
-        <v>7128042.891074254</v>
+        <v>7128041.04011975</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1163,10 +1160,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87868465</v>
+        <v>96277680</v>
       </c>
       <c r="B6" t="n">
-        <v>90676</v>
+        <v>90287</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,37 +1176,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5966</v>
+        <v>4745</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Tegslund, Vb</t>
+          <t>Hednäs sandtallskog, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>714407.0040174956</v>
+        <v>714597.6521645868</v>
       </c>
       <c r="R6" t="n">
-        <v>7128041.04011975</v>
+        <v>7127991.413180619</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1236,7 +1230,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-07</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1246,7 +1240,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-07</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1260,33 +1254,32 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96277693</v>
+        <v>96277683</v>
       </c>
       <c r="B7" t="n">
-        <v>87997</v>
+        <v>90641</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1299,21 +1292,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1596</v>
+        <v>149</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1323,10 +1316,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>714526.922649876</v>
+        <v>714515.6473675933</v>
       </c>
       <c r="R7" t="n">
-        <v>7127656.675301841</v>
+        <v>7127925.421404001</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1399,7 +1392,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96277696</v>
+        <v>61646020</v>
       </c>
       <c r="B8" t="n">
         <v>90641</v>
@@ -1432,17 +1425,27 @@
           <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Hednäs sandtallskog, Vb</t>
+          <t>Hednäs, Vb</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>714543.4975373799</v>
+        <v>714639.8715831796</v>
       </c>
       <c r="R8" t="n">
-        <v>7127625.938339643</v>
+        <v>7127674.152014807</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1469,7 +1472,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-09-07</t>
+          <t>2016-09-29</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1479,7 +1482,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-09-07</t>
+          <t>2016-09-29</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1493,32 +1496,29 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Ulf Hallin</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Ulf Hallin</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96277689</v>
+        <v>96277693</v>
       </c>
       <c r="B9" t="n">
-        <v>88019</v>
+        <v>87997</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1531,21 +1531,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6276</v>
+        <v>1596</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>714544.47609496</v>
+        <v>714526.922649876</v>
       </c>
       <c r="R9" t="n">
-        <v>7127699.835777847</v>
+        <v>7127656.675301841</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96277691</v>
+        <v>96277696</v>
       </c>
       <c r="B10" t="n">
-        <v>88019</v>
+        <v>90641</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1647,21 +1647,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6276</v>
+        <v>149</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1671,10 +1671,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>714529.141004436</v>
+        <v>714543.4975373799</v>
       </c>
       <c r="R10" t="n">
-        <v>7127662.508926974</v>
+        <v>7127625.938339643</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1747,10 +1747,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96277680</v>
+        <v>96277689</v>
       </c>
       <c r="B11" t="n">
-        <v>90287</v>
+        <v>88019</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1759,25 +1759,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4745</v>
+        <v>6276</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>714597.6521645868</v>
+        <v>714544.47609496</v>
       </c>
       <c r="R11" t="n">
-        <v>7127991.413180619</v>
+        <v>7127699.835777847</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1863,10 +1863,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96277700</v>
+        <v>96277691</v>
       </c>
       <c r="B12" t="n">
-        <v>90669</v>
+        <v>88019</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1903,10 +1903,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>714568.0295255873</v>
+        <v>714529.141004436</v>
       </c>
       <c r="R12" t="n">
-        <v>7127594.007701587</v>
+        <v>7127662.508926974</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96277683</v>
+        <v>96277700</v>
       </c>
       <c r="B13" t="n">
-        <v>90641</v>
+        <v>90669</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1991,25 +1991,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>149</v>
+        <v>2059</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>714515.6473675933</v>
+        <v>714568.0295255873</v>
       </c>
       <c r="R13" t="n">
-        <v>7127925.421404001</v>
+        <v>7127594.007701587</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 35492-2020.xlsx
+++ b/artfynd/A 35492-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87868543</v>
+        <v>61646020</v>
       </c>
       <c r="B2" t="n">
-        <v>90647</v>
+        <v>90641</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,48 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4362</v>
+        <v>149</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>(Peck) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Tegslund, Vb</t>
+          <t>Hednäs, Vb</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>714541.1957100357</v>
+        <v>714639.8715831796</v>
       </c>
       <c r="R2" t="n">
-        <v>7127922.832095096</v>
+        <v>7127674.152014807</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,7 +760,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2016-09-29</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,7 +770,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2016-09-29</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -784,26 +791,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Ulf Hallin</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Ulf Hallin</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>87868474</v>
+        <v>87868543</v>
       </c>
       <c r="B3" t="n">
-        <v>90639</v>
+        <v>90647</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,21 +819,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -843,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>714528.1606125243</v>
+        <v>714541.1957100357</v>
       </c>
       <c r="R3" t="n">
-        <v>7127934.155467404</v>
+        <v>7127922.832095096</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -920,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87868461</v>
+        <v>87868474</v>
       </c>
       <c r="B4" t="n">
-        <v>90665</v>
+        <v>90639</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,25 +935,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -963,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>714559.0773559922</v>
+        <v>714528.1606125243</v>
       </c>
       <c r="R4" t="n">
-        <v>7128042.891074254</v>
+        <v>7127934.155467404</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1040,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87868465</v>
+        <v>87868461</v>
       </c>
       <c r="B5" t="n">
-        <v>90676</v>
+        <v>90665</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1052,25 +1055,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5966</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1083,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>714407.0040174956</v>
+        <v>714559.0773559922</v>
       </c>
       <c r="R5" t="n">
-        <v>7128041.04011975</v>
+        <v>7128042.891074254</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1160,10 +1163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96277680</v>
+        <v>87868465</v>
       </c>
       <c r="B6" t="n">
-        <v>90287</v>
+        <v>90676</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1176,34 +1179,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4745</v>
+        <v>5966</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Hednäs sandtallskog, Vb</t>
+          <t>Tegslund, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>714597.6521645868</v>
+        <v>714407.0040174956</v>
       </c>
       <c r="R6" t="n">
-        <v>7127991.413180619</v>
+        <v>7128041.04011975</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1230,7 +1236,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-09-07</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1240,7 +1246,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-09-07</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1254,32 +1260,33 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96277683</v>
+        <v>96277693</v>
       </c>
       <c r="B7" t="n">
-        <v>90641</v>
+        <v>87997</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1292,21 +1299,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>149</v>
+        <v>1596</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1316,10 +1323,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>714515.6473675933</v>
+        <v>714526.922649876</v>
       </c>
       <c r="R7" t="n">
-        <v>7127925.421404001</v>
+        <v>7127656.675301841</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1392,7 +1399,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61646020</v>
+        <v>96277696</v>
       </c>
       <c r="B8" t="n">
         <v>90641</v>
@@ -1425,27 +1432,17 @@
           <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Hednäs, Vb</t>
+          <t>Hednäs sandtallskog, Vb</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>714639.8715831796</v>
+        <v>714543.4975373799</v>
       </c>
       <c r="R8" t="n">
-        <v>7127674.152014807</v>
+        <v>7127625.938339643</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1472,7 +1469,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2016-09-29</t>
+          <t>2021-09-07</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1482,7 +1479,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2016-09-29</t>
+          <t>2021-09-07</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1496,29 +1493,32 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Ulf Hallin</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Ulf Hallin</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr"/>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96277693</v>
+        <v>96277689</v>
       </c>
       <c r="B9" t="n">
-        <v>87997</v>
+        <v>88019</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1531,21 +1531,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1596</v>
+        <v>6276</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>714526.922649876</v>
+        <v>714544.47609496</v>
       </c>
       <c r="R9" t="n">
-        <v>7127656.675301841</v>
+        <v>7127699.835777847</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96277696</v>
+        <v>96277691</v>
       </c>
       <c r="B10" t="n">
-        <v>90641</v>
+        <v>88019</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1647,21 +1647,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>149</v>
+        <v>6276</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1671,10 +1671,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>714543.4975373799</v>
+        <v>714529.141004436</v>
       </c>
       <c r="R10" t="n">
-        <v>7127625.938339643</v>
+        <v>7127662.508926974</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1747,10 +1747,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96277689</v>
+        <v>96277680</v>
       </c>
       <c r="B11" t="n">
-        <v>88019</v>
+        <v>90287</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1759,25 +1759,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6276</v>
+        <v>4745</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>714544.47609496</v>
+        <v>714597.6521645868</v>
       </c>
       <c r="R11" t="n">
-        <v>7127699.835777847</v>
+        <v>7127991.413180619</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1863,10 +1863,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96277691</v>
+        <v>96277700</v>
       </c>
       <c r="B12" t="n">
-        <v>88019</v>
+        <v>90669</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1903,10 +1903,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>714529.141004436</v>
+        <v>714568.0295255873</v>
       </c>
       <c r="R12" t="n">
-        <v>7127662.508926974</v>
+        <v>7127594.007701587</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96277700</v>
+        <v>96277683</v>
       </c>
       <c r="B13" t="n">
-        <v>90669</v>
+        <v>90641</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1991,25 +1991,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2059</v>
+        <v>149</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>714568.0295255873</v>
+        <v>714515.6473675933</v>
       </c>
       <c r="R13" t="n">
-        <v>7127594.007701587</v>
+        <v>7127925.421404001</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
